--- a/URS/DbLayouts/L8-遵循法令作業/JcicMonthlyLoanData.xlsx
+++ b/URS/DbLayouts/L8-遵循法令作業/JcicMonthlyLoanData.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24228"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SKL_SVN\Documents\DB\GenTables\L8-遵循法令作業\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="V:\SKL\DB\GenTables\L8-遵循法令作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9B2E121-0040-4D46-83A7-4AC7A7CD7117}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9132"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="4" r:id="rId1"/>
@@ -17,14 +18,14 @@
     <sheet name="SP" sheetId="5" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">DBD!$A$8:$G$125</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">DBD!$A$8:$G$97</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="234">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="180">
   <si>
     <t>讀取Key條件</t>
     <phoneticPr fontId="5" type="noConversion"/>
@@ -148,48 +149,6 @@
     <t>聯貸合約訂定日期</t>
   </si>
   <si>
-    <t>共同債務人或債務關係人身份統一編號1</t>
-  </si>
-  <si>
-    <t>與主債務人關係1</t>
-  </si>
-  <si>
-    <t>共同債務人或債務關係人身份代號2</t>
-  </si>
-  <si>
-    <t>共同債務人或債務關係人身份統一編號2</t>
-  </si>
-  <si>
-    <t>與主債務人關係2</t>
-  </si>
-  <si>
-    <t>共同債務人或債務關係人身份代號3</t>
-  </si>
-  <si>
-    <t>共同債務人或債務關係人身份統一編號3</t>
-  </si>
-  <si>
-    <t>與主債務人關係3</t>
-  </si>
-  <si>
-    <t>共同債務人或債務關係人身份代號4</t>
-  </si>
-  <si>
-    <t>共同債務人或債務關係人身份統一編號4</t>
-  </si>
-  <si>
-    <t>與主債務人關係4</t>
-  </si>
-  <si>
-    <t>共同債務人或債務關係人身份代號5</t>
-  </si>
-  <si>
-    <t>共同債務人或債務關係人身份統一編號5</t>
-  </si>
-  <si>
-    <t>與主債務人關係5</t>
-  </si>
-  <si>
     <t>本筆撥款利率</t>
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
@@ -285,59 +244,6 @@
   </si>
   <si>
     <t>ClType</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>共同債務人或債務關係人身份代號1</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>GuaTypeCode1</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>GuaTypeCode2</t>
-  </si>
-  <si>
-    <t>GuaRelCode1</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>GuaId1</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>GuaId2</t>
-  </si>
-  <si>
-    <t>GuaRelCode2</t>
-  </si>
-  <si>
-    <t>GuaTypeCode3</t>
-  </si>
-  <si>
-    <t>GuaId3</t>
-  </si>
-  <si>
-    <t>GuaRelCode3</t>
-  </si>
-  <si>
-    <t>GuaTypeCode4</t>
-  </si>
-  <si>
-    <t>GuaId4</t>
-  </si>
-  <si>
-    <t>GuaRelCode4</t>
-  </si>
-  <si>
-    <t>GuaTypeCode5</t>
-  </si>
-  <si>
-    <t>GuaId5</t>
-  </si>
-  <si>
-    <t>GuaRelCode5</t>
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
@@ -774,126 +680,6 @@
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
-    <t>GuaTypeCode6</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>共同債務人或債務關係人身份代號6</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>共同債務人或債務關係人身份統一編號6</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>GuaId6</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>GuaRelCode6</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>與主債務人關係6</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>共同債務人或債務關係人身份代號7</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>共同債務人或債務關係人身份統一編號7</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>GuaTypeCode7</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>GuaId7</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>GuaRelCode7</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>與主債務人關係7</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>共同債務人或債務關係人身份代號8</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>共同債務人或債務關係人身份統一編號8</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>與主債務人關係8</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>GuaRelCode8</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>GuaId8</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>GuaTypeCode8</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>GuaTypeCode9</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>共同債務人或債務關係人身份代號9</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>共同債務人或債務關係人身份統一編號9</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>GuaId9</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>GuaRelCode9</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>與主債務人關係9</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>共同債務人或債務關係人身份代號10</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>共同債務人或債務關係人身份統一編號10</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>GuaTypeCode10</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>GuaId10</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>GuaRelCode10</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>與主債務人關係10</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
     <t>RecycleDeadline</t>
   </si>
   <si>
@@ -941,13 +727,38 @@
   </si>
   <si>
     <t>OvduDate</t>
+  </si>
+  <si>
+    <t>AcBookCode</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>帳冊別</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>AcSubBookCode</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>區隔帳冊</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>000：全公司</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>00A:傳統帳冊
+201:利變年金帳冊</t>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="21" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1093,6 +904,13 @@
       <family val="3"/>
       <charset val="136"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="標楷體"/>
+      <family val="4"/>
+      <charset val="136"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -1188,7 +1006,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1291,16 +1109,34 @@
     <xf numFmtId="49" fontId="8" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="21" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="21" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="8">
-    <cellStyle name="?蟓%U?&amp;H?_x0008__x001e__x000d_?_x000f__x0001__x0001_" xfId="3"/>
+    <cellStyle name="?蟓%U?&amp;H?_x0008__x001e__x000d_?_x000f__x0001__x0001_" xfId="3" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
     <cellStyle name="一般" xfId="0" builtinId="0"/>
-    <cellStyle name="一般 2" xfId="1"/>
-    <cellStyle name="一般 2 2" xfId="2"/>
-    <cellStyle name="一般 2 2 2" xfId="6"/>
-    <cellStyle name="一般 2 3" xfId="7"/>
-    <cellStyle name="一般 2 4" xfId="5"/>
-    <cellStyle name="一般 3" xfId="4"/>
+    <cellStyle name="一般 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="一般 2 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="一般 2 2 2" xfId="6" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="一般 2 3" xfId="7" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
+    <cellStyle name="一般 2 4" xfId="5" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
+    <cellStyle name="一般 3" xfId="4" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1391,6 +1227,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1426,6 +1279,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1601,11 +1471,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G148"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:G120"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A88" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C100" sqref="C100"/>
+    <sheetView tabSelected="1" topLeftCell="A58" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C73" sqref="C73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -1621,14 +1491,14 @@
   <sheetData>
     <row r="1" spans="1:7" s="24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="30" t="s">
-        <v>77</v>
+        <v>47</v>
       </c>
       <c r="B1" s="31"/>
       <c r="C1" s="22" t="s">
-        <v>78</v>
+        <v>48</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>79</v>
+        <v>49</v>
       </c>
       <c r="E1" s="23"/>
       <c r="F1" s="10"/>
@@ -1653,7 +1523,7 @@
       </c>
       <c r="B3" s="33"/>
       <c r="C3" s="8" t="s">
-        <v>91</v>
+        <v>61</v>
       </c>
       <c r="D3" s="6"/>
       <c r="E3" s="10"/>
@@ -1703,7 +1573,7 @@
     </row>
     <row r="8" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="B8" s="7" t="s">
         <v>5</v>
@@ -1721,7 +1591,7 @@
         <v>9</v>
       </c>
       <c r="G8" s="20" t="s">
-        <v>76</v>
+        <v>46</v>
       </c>
     </row>
     <row r="9" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.3">
@@ -1729,13 +1599,13 @@
         <v>1</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>82</v>
+        <v>52</v>
       </c>
       <c r="E9" s="9">
         <v>6</v>
@@ -1748,13 +1618,13 @@
         <v>2</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>83</v>
+        <v>53</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>84</v>
+        <v>54</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>82</v>
+        <v>52</v>
       </c>
       <c r="E10" s="9">
         <v>7</v>
@@ -1767,10 +1637,10 @@
         <v>3</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>87</v>
+        <v>57</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>88</v>
+        <v>58</v>
       </c>
       <c r="D11" s="8" t="s">
         <v>16</v>
@@ -1786,10 +1656,10 @@
         <v>4</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>89</v>
+        <v>59</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="D12" s="8" t="s">
         <v>16</v>
@@ -1805,13 +1675,13 @@
         <v>5</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>85</v>
+        <v>55</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>92</v>
+        <v>62</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>86</v>
+        <v>56</v>
       </c>
       <c r="E13" s="9">
         <v>10</v>
@@ -1824,10 +1694,10 @@
         <v>6</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>170</v>
+        <v>140</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>171</v>
+        <v>141</v>
       </c>
       <c r="D14" s="8" t="s">
         <v>16</v>
@@ -1837,7 +1707,7 @@
       </c>
       <c r="F14" s="9"/>
       <c r="G14" s="8" t="s">
-        <v>172</v>
+        <v>142</v>
       </c>
     </row>
     <row r="15" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.3">
@@ -1845,20 +1715,20 @@
         <v>7</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>96</v>
+        <v>66</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>97</v>
+        <v>67</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>86</v>
+        <v>56</v>
       </c>
       <c r="E15" s="9">
         <v>1</v>
       </c>
       <c r="F15" s="9"/>
       <c r="G15" s="8" t="s">
-        <v>98</v>
+        <v>68</v>
       </c>
     </row>
     <row r="16" spans="1:7" s="14" customFormat="1" ht="32.4" x14ac:dyDescent="0.3">
@@ -1866,20 +1736,20 @@
         <v>8</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>93</v>
+        <v>63</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>94</v>
+        <v>64</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>86</v>
+        <v>56</v>
       </c>
       <c r="E16" s="9">
         <v>10</v>
       </c>
       <c r="F16" s="9"/>
       <c r="G16" s="8" t="s">
-        <v>95</v>
+        <v>65</v>
       </c>
     </row>
     <row r="17" spans="1:7" s="14" customFormat="1" ht="48.6" x14ac:dyDescent="0.3">
@@ -1887,20 +1757,20 @@
         <v>9</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>154</v>
+        <v>124</v>
       </c>
       <c r="C17" s="8" t="s">
         <v>17</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>86</v>
+        <v>56</v>
       </c>
       <c r="E17" s="9">
         <v>10</v>
       </c>
       <c r="F17" s="9"/>
       <c r="G17" s="8" t="s">
-        <v>99</v>
+        <v>69</v>
       </c>
     </row>
     <row r="18" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.3">
@@ -1908,10 +1778,10 @@
         <v>10</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="D18" s="8" t="s">
         <v>3</v>
@@ -1927,10 +1797,10 @@
         <v>11</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="D19" s="8" t="s">
         <v>3</v>
@@ -1946,10 +1816,10 @@
         <v>12</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="D20" s="8" t="s">
         <v>3</v>
@@ -1959,7 +1829,7 @@
       </c>
       <c r="F20" s="9"/>
       <c r="G20" s="18" t="s">
-        <v>100</v>
+        <v>70</v>
       </c>
     </row>
     <row r="21" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.3">
@@ -1967,10 +1837,10 @@
         <v>13</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="D21" s="8" t="s">
         <v>3</v>
@@ -1986,10 +1856,10 @@
         <v>14</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>227</v>
+        <v>167</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>229</v>
+        <v>169</v>
       </c>
       <c r="D22" s="8" t="s">
         <v>16</v>
@@ -2007,10 +1877,10 @@
         <v>15</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>228</v>
+        <v>168</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>230</v>
+        <v>170</v>
       </c>
       <c r="D23" s="8" t="s">
         <v>16</v>
@@ -2022,7 +1892,7 @@
         <v>2</v>
       </c>
       <c r="G23" s="18" t="s">
-        <v>231</v>
+        <v>171</v>
       </c>
     </row>
     <row r="24" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.3">
@@ -2030,10 +1900,10 @@
         <v>16</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>104</v>
+        <v>74</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>105</v>
+        <v>75</v>
       </c>
       <c r="D24" s="8" t="s">
         <v>3</v>
@@ -2043,7 +1913,7 @@
       </c>
       <c r="F24" s="9"/>
       <c r="G24" s="18" t="s">
-        <v>106</v>
+        <v>76</v>
       </c>
     </row>
     <row r="25" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.3">
@@ -2051,13 +1921,13 @@
         <v>17</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>221</v>
+        <v>161</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>222</v>
+        <v>162</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>102</v>
+        <v>72</v>
       </c>
       <c r="E25" s="9">
         <v>8</v>
@@ -2070,10 +1940,10 @@
         <v>18</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>57</v>
+        <v>43</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>107</v>
+        <v>77</v>
       </c>
       <c r="D26" s="8" t="s">
         <v>3</v>
@@ -2083,7 +1953,7 @@
       </c>
       <c r="F26" s="9"/>
       <c r="G26" s="18" t="s">
-        <v>108</v>
+        <v>78</v>
       </c>
     </row>
     <row r="27" spans="1:7" s="14" customFormat="1" ht="124.2" x14ac:dyDescent="0.3">
@@ -2091,7 +1961,7 @@
         <v>19</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="C27" s="8" t="s">
         <v>18</v>
@@ -2104,7 +1974,7 @@
       </c>
       <c r="F27" s="9"/>
       <c r="G27" s="18" t="s">
-        <v>152</v>
+        <v>122</v>
       </c>
     </row>
     <row r="28" spans="1:7" s="14" customFormat="1" ht="207" x14ac:dyDescent="0.3">
@@ -2112,7 +1982,7 @@
         <v>20</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="C28" s="8" t="s">
         <v>19</v>
@@ -2125,7 +1995,7 @@
       </c>
       <c r="F28" s="8"/>
       <c r="G28" s="18" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
     </row>
     <row r="29" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.3">
@@ -2133,10 +2003,10 @@
         <v>21</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="D29" s="8" t="s">
         <v>3</v>
@@ -2152,10 +2022,10 @@
         <v>22</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="D30" s="8" t="s">
         <v>3</v>
@@ -2171,10 +2041,10 @@
         <v>23</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>53</v>
+        <v>39</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="D31" s="8" t="s">
         <v>16</v>
@@ -2192,10 +2062,10 @@
         <v>24</v>
       </c>
       <c r="B32" s="8" t="s">
-        <v>114</v>
+        <v>84</v>
       </c>
       <c r="C32" s="8" t="s">
-        <v>113</v>
+        <v>83</v>
       </c>
       <c r="D32" s="8" t="s">
         <v>16</v>
@@ -2213,13 +2083,13 @@
         <v>25</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="C33" s="8" t="s">
-        <v>101</v>
+        <v>71</v>
       </c>
       <c r="D33" s="8" t="s">
-        <v>102</v>
+        <v>72</v>
       </c>
       <c r="E33" s="9">
         <v>8</v>
@@ -2232,13 +2102,13 @@
         <v>26</v>
       </c>
       <c r="B34" s="8" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="C34" s="8" t="s">
-        <v>177</v>
+        <v>147</v>
       </c>
       <c r="D34" s="8" t="s">
-        <v>102</v>
+        <v>72</v>
       </c>
       <c r="E34" s="9">
         <v>8</v>
@@ -2251,10 +2121,10 @@
         <v>27</v>
       </c>
       <c r="B35" s="8" t="s">
-        <v>166</v>
+        <v>136</v>
       </c>
       <c r="C35" s="8" t="s">
-        <v>165</v>
+        <v>135</v>
       </c>
       <c r="D35" s="8" t="s">
         <v>3</v>
@@ -2264,7 +2134,7 @@
       </c>
       <c r="F35" s="9"/>
       <c r="G35" s="18" t="s">
-        <v>167</v>
+        <v>137</v>
       </c>
     </row>
     <row r="36" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.3">
@@ -2272,10 +2142,10 @@
         <v>28</v>
       </c>
       <c r="B36" s="8" t="s">
-        <v>112</v>
+        <v>82</v>
       </c>
       <c r="C36" s="8" t="s">
-        <v>111</v>
+        <v>81</v>
       </c>
       <c r="D36" s="8" t="s">
         <v>3</v>
@@ -2291,10 +2161,10 @@
         <v>29</v>
       </c>
       <c r="B37" s="8" t="s">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="C37" s="8" t="s">
-        <v>103</v>
+        <v>73</v>
       </c>
       <c r="D37" s="8" t="s">
         <v>16</v>
@@ -2312,10 +2182,10 @@
         <v>30</v>
       </c>
       <c r="B38" s="8" t="s">
-        <v>109</v>
+        <v>79</v>
       </c>
       <c r="C38" s="8" t="s">
-        <v>110</v>
+        <v>80</v>
       </c>
       <c r="D38" s="8" t="s">
         <v>16</v>
@@ -2333,10 +2203,10 @@
         <v>31</v>
       </c>
       <c r="B39" s="8" t="s">
-        <v>130</v>
+        <v>100</v>
       </c>
       <c r="C39" s="8" t="s">
-        <v>115</v>
+        <v>85</v>
       </c>
       <c r="D39" s="8" t="s">
         <v>16</v>
@@ -2354,10 +2224,10 @@
         <v>32</v>
       </c>
       <c r="B40" s="8" t="s">
-        <v>119</v>
+        <v>89</v>
       </c>
       <c r="C40" s="8" t="s">
-        <v>116</v>
+        <v>86</v>
       </c>
       <c r="D40" s="8" t="s">
         <v>16</v>
@@ -2375,10 +2245,10 @@
         <v>33</v>
       </c>
       <c r="B41" s="8" t="s">
-        <v>129</v>
+        <v>99</v>
       </c>
       <c r="C41" s="8" t="s">
-        <v>118</v>
+        <v>88</v>
       </c>
       <c r="D41" s="8" t="s">
         <v>16</v>
@@ -2396,10 +2266,10 @@
         <v>34</v>
       </c>
       <c r="B42" s="8" t="s">
-        <v>121</v>
+        <v>91</v>
       </c>
       <c r="C42" s="8" t="s">
-        <v>117</v>
+        <v>87</v>
       </c>
       <c r="D42" s="8" t="s">
         <v>16</v>
@@ -2417,10 +2287,10 @@
         <v>35</v>
       </c>
       <c r="B43" s="8" t="s">
-        <v>122</v>
+        <v>92</v>
       </c>
       <c r="C43" s="8" t="s">
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="D43" s="8" t="s">
         <v>16</v>
@@ -2438,13 +2308,13 @@
         <v>36</v>
       </c>
       <c r="B44" s="8" t="s">
-        <v>179</v>
+        <v>149</v>
       </c>
       <c r="C44" s="8" t="s">
-        <v>123</v>
+        <v>93</v>
       </c>
       <c r="D44" s="8" t="s">
-        <v>102</v>
+        <v>72</v>
       </c>
       <c r="E44" s="9">
         <v>8</v>
@@ -2457,13 +2327,13 @@
         <v>37</v>
       </c>
       <c r="B45" s="8" t="s">
-        <v>128</v>
+        <v>98</v>
       </c>
       <c r="C45" s="8" t="s">
-        <v>124</v>
+        <v>94</v>
       </c>
       <c r="D45" s="8" t="s">
-        <v>102</v>
+        <v>72</v>
       </c>
       <c r="E45" s="9">
         <v>8</v>
@@ -2476,13 +2346,13 @@
         <v>38</v>
       </c>
       <c r="B46" s="8" t="s">
-        <v>127</v>
+        <v>97</v>
       </c>
       <c r="C46" s="8" t="s">
-        <v>125</v>
+        <v>95</v>
       </c>
       <c r="D46" s="8" t="s">
-        <v>102</v>
+        <v>72</v>
       </c>
       <c r="E46" s="9">
         <v>8</v>
@@ -2495,13 +2365,13 @@
         <v>39</v>
       </c>
       <c r="B47" s="8" t="s">
-        <v>183</v>
+        <v>153</v>
       </c>
       <c r="C47" s="8" t="s">
-        <v>126</v>
+        <v>96</v>
       </c>
       <c r="D47" s="8" t="s">
-        <v>102</v>
+        <v>72</v>
       </c>
       <c r="E47" s="9">
         <v>8</v>
@@ -2514,20 +2384,20 @@
         <v>40</v>
       </c>
       <c r="B48" s="8" t="s">
-        <v>180</v>
+        <v>150</v>
       </c>
       <c r="C48" s="8" t="s">
-        <v>175</v>
+        <v>145</v>
       </c>
       <c r="D48" s="8" t="s">
-        <v>82</v>
+        <v>52</v>
       </c>
       <c r="E48" s="9">
         <v>3</v>
       </c>
       <c r="F48" s="9"/>
       <c r="G48" s="18" t="s">
-        <v>182</v>
+        <v>152</v>
       </c>
     </row>
     <row r="49" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.3">
@@ -2535,20 +2405,20 @@
         <v>41</v>
       </c>
       <c r="B49" s="8" t="s">
-        <v>184</v>
+        <v>154</v>
       </c>
       <c r="C49" s="8" t="s">
-        <v>176</v>
+        <v>146</v>
       </c>
       <c r="D49" s="8" t="s">
-        <v>82</v>
+        <v>52</v>
       </c>
       <c r="E49" s="9">
         <v>3</v>
       </c>
       <c r="F49" s="9"/>
       <c r="G49" s="18" t="s">
-        <v>182</v>
+        <v>152</v>
       </c>
     </row>
     <row r="50" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.3">
@@ -2556,20 +2426,20 @@
         <v>42</v>
       </c>
       <c r="B50" s="8" t="s">
-        <v>181</v>
+        <v>151</v>
       </c>
       <c r="C50" s="8" t="s">
-        <v>178</v>
+        <v>148</v>
       </c>
       <c r="D50" s="8" t="s">
-        <v>82</v>
+        <v>52</v>
       </c>
       <c r="E50" s="9">
         <v>3</v>
       </c>
       <c r="F50" s="9"/>
       <c r="G50" s="18" t="s">
-        <v>182</v>
+        <v>152</v>
       </c>
     </row>
     <row r="51" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.3">
@@ -2577,22 +2447,22 @@
         <v>43</v>
       </c>
       <c r="B51" s="8" t="s">
-        <v>131</v>
+        <v>101</v>
       </c>
       <c r="C51" s="8" t="s">
-        <v>132</v>
+        <v>102</v>
       </c>
       <c r="D51" s="8" t="s">
-        <v>82</v>
+        <v>52</v>
       </c>
       <c r="E51" s="9">
         <v>1</v>
       </c>
       <c r="F51" s="9" t="s">
-        <v>133</v>
+        <v>103</v>
       </c>
       <c r="G51" s="26" t="s">
-        <v>134</v>
+        <v>104</v>
       </c>
     </row>
     <row r="52" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.3">
@@ -2600,22 +2470,22 @@
         <v>44</v>
       </c>
       <c r="B52" s="8" t="s">
-        <v>135</v>
+        <v>105</v>
       </c>
       <c r="C52" s="8" t="s">
-        <v>136</v>
+        <v>106</v>
       </c>
       <c r="D52" s="8" t="s">
-        <v>82</v>
+        <v>52</v>
       </c>
       <c r="E52" s="9">
         <v>2</v>
       </c>
       <c r="F52" s="9" t="s">
-        <v>133</v>
+        <v>103</v>
       </c>
       <c r="G52" s="26" t="s">
-        <v>137</v>
+        <v>107</v>
       </c>
     </row>
     <row r="53" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.3">
@@ -2623,13 +2493,13 @@
         <v>45</v>
       </c>
       <c r="B53" s="8" t="s">
-        <v>138</v>
+        <v>108</v>
       </c>
       <c r="C53" s="8" t="s">
-        <v>139</v>
+        <v>109</v>
       </c>
       <c r="D53" s="8" t="s">
-        <v>82</v>
+        <v>52</v>
       </c>
       <c r="E53" s="9">
         <v>7</v>
@@ -2642,10 +2512,10 @@
         <v>46</v>
       </c>
       <c r="B54" s="8" t="s">
-        <v>168</v>
+        <v>138</v>
       </c>
       <c r="C54" s="8" t="s">
-        <v>169</v>
+        <v>139</v>
       </c>
       <c r="D54" s="8" t="s">
         <v>3</v>
@@ -2661,10 +2531,10 @@
         <v>47</v>
       </c>
       <c r="B55" s="8" t="s">
-        <v>59</v>
+        <v>45</v>
       </c>
       <c r="C55" s="8" t="s">
-        <v>58</v>
+        <v>44</v>
       </c>
       <c r="D55" s="8" t="s">
         <v>3</v>
@@ -2674,7 +2544,7 @@
       </c>
       <c r="F55" s="9"/>
       <c r="G55" s="18" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
     </row>
     <row r="56" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.3">
@@ -2682,10 +2552,10 @@
         <v>48</v>
       </c>
       <c r="B56" s="8" t="s">
-        <v>146</v>
+        <v>116</v>
       </c>
       <c r="C56" s="8" t="s">
-        <v>153</v>
+        <v>123</v>
       </c>
       <c r="D56" s="8" t="s">
         <v>16</v>
@@ -2703,13 +2573,13 @@
         <v>49</v>
       </c>
       <c r="B57" s="8" t="s">
-        <v>174</v>
+        <v>144</v>
       </c>
       <c r="C57" s="8" t="s">
-        <v>173</v>
+        <v>143</v>
       </c>
       <c r="D57" s="8" t="s">
-        <v>102</v>
+        <v>72</v>
       </c>
       <c r="E57" s="9">
         <v>8</v>
@@ -2722,10 +2592,10 @@
         <v>50</v>
       </c>
       <c r="B58" s="8" t="s">
-        <v>141</v>
+        <v>111</v>
       </c>
       <c r="C58" s="8" t="s">
-        <v>140</v>
+        <v>110</v>
       </c>
       <c r="D58" s="8" t="s">
         <v>16</v>
@@ -2741,10 +2611,10 @@
         <v>51</v>
       </c>
       <c r="B59" s="8" t="s">
-        <v>149</v>
+        <v>119</v>
       </c>
       <c r="C59" s="8" t="s">
-        <v>148</v>
+        <v>118</v>
       </c>
       <c r="D59" s="8" t="s">
         <v>3</v>
@@ -2754,7 +2624,7 @@
       </c>
       <c r="F59" s="9"/>
       <c r="G59" s="26" t="s">
-        <v>150</v>
+        <v>120</v>
       </c>
     </row>
     <row r="60" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.3">
@@ -2762,13 +2632,13 @@
         <v>52</v>
       </c>
       <c r="B60" s="8" t="s">
-        <v>147</v>
+        <v>117</v>
       </c>
       <c r="C60" s="8" t="s">
         <v>20</v>
       </c>
       <c r="D60" s="8" t="s">
-        <v>102</v>
+        <v>72</v>
       </c>
       <c r="E60" s="9">
         <v>8</v>
@@ -2781,10 +2651,10 @@
         <v>53</v>
       </c>
       <c r="B61" s="8" t="s">
-        <v>144</v>
+        <v>114</v>
       </c>
       <c r="C61" s="8" t="s">
-        <v>142</v>
+        <v>112</v>
       </c>
       <c r="D61" s="8" t="s">
         <v>16</v>
@@ -2802,10 +2672,10 @@
         <v>54</v>
       </c>
       <c r="B62" s="8" t="s">
-        <v>145</v>
+        <v>115</v>
       </c>
       <c r="C62" s="8" t="s">
-        <v>143</v>
+        <v>113</v>
       </c>
       <c r="D62" s="8" t="s">
         <v>16</v>
@@ -2823,16 +2693,16 @@
         <v>55</v>
       </c>
       <c r="B63" s="8" t="s">
-        <v>61</v>
+        <v>173</v>
       </c>
       <c r="C63" s="8" t="s">
-        <v>60</v>
+        <v>172</v>
       </c>
       <c r="D63" s="8" t="s">
-        <v>3</v>
+        <v>72</v>
       </c>
       <c r="E63" s="9">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="F63" s="9"/>
       <c r="G63" s="18"/>
@@ -2842,16 +2712,16 @@
         <v>56</v>
       </c>
       <c r="B64" s="8" t="s">
-        <v>64</v>
+        <v>163</v>
       </c>
       <c r="C64" s="8" t="s">
-        <v>21</v>
+        <v>121</v>
       </c>
       <c r="D64" s="8" t="s">
-        <v>3</v>
+        <v>72</v>
       </c>
       <c r="E64" s="9">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F64" s="9"/>
       <c r="G64" s="18"/>
@@ -2861,74 +2731,78 @@
         <v>57</v>
       </c>
       <c r="B65" s="8" t="s">
-        <v>63</v>
+        <v>164</v>
       </c>
       <c r="C65" s="8" t="s">
-        <v>22</v>
+        <v>165</v>
       </c>
       <c r="D65" s="8" t="s">
         <v>3</v>
       </c>
       <c r="E65" s="9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F65" s="9"/>
-      <c r="G65" s="18"/>
+      <c r="G65" s="18" t="s">
+        <v>166</v>
+      </c>
     </row>
     <row r="66" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A66" s="21">
         <v>58</v>
       </c>
-      <c r="B66" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="C66" s="8" t="s">
-        <v>23</v>
+      <c r="B66" s="34" t="s">
+        <v>174</v>
+      </c>
+      <c r="C66" s="34" t="s">
+        <v>175</v>
       </c>
       <c r="D66" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="E66" s="35">
         <v>3</v>
       </c>
-      <c r="E66" s="9">
-        <v>1</v>
-      </c>
-      <c r="F66" s="9"/>
-      <c r="G66" s="18"/>
-    </row>
-    <row r="67" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="F66" s="36"/>
+      <c r="G66" s="18" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" s="14" customFormat="1" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A67" s="9">
         <v>59</v>
       </c>
-      <c r="B67" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="C67" s="8" t="s">
-        <v>24</v>
+      <c r="B67" s="37" t="s">
+        <v>176</v>
+      </c>
+      <c r="C67" s="37" t="s">
+        <v>177</v>
       </c>
       <c r="D67" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="E67" s="38">
         <v>3</v>
       </c>
-      <c r="E67" s="9">
-        <v>10</v>
-      </c>
-      <c r="F67" s="9"/>
-      <c r="G67" s="18"/>
+      <c r="F67" s="39"/>
+      <c r="G67" s="18" t="s">
+        <v>179</v>
+      </c>
     </row>
     <row r="68" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A68" s="21">
         <v>60</v>
       </c>
-      <c r="B68" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="C68" s="8" t="s">
-        <v>25</v>
+      <c r="B68" s="26" t="s">
+        <v>125</v>
+      </c>
+      <c r="C68" s="26" t="s">
+        <v>126</v>
       </c>
       <c r="D68" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="E68" s="9">
-        <v>2</v>
-      </c>
+        <v>127</v>
+      </c>
+      <c r="E68" s="27"/>
       <c r="F68" s="9"/>
       <c r="G68" s="18"/>
     </row>
@@ -2936,17 +2810,17 @@
       <c r="A69" s="9">
         <v>61</v>
       </c>
-      <c r="B69" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="C69" s="8" t="s">
-        <v>26</v>
+      <c r="B69" s="26" t="s">
+        <v>128</v>
+      </c>
+      <c r="C69" s="26" t="s">
+        <v>129</v>
       </c>
       <c r="D69" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="E69" s="9">
-        <v>1</v>
+      <c r="E69" s="27">
+        <v>6</v>
       </c>
       <c r="F69" s="9"/>
       <c r="G69" s="18"/>
@@ -2955,18 +2829,16 @@
       <c r="A70" s="21">
         <v>62</v>
       </c>
-      <c r="B70" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="C70" s="8" t="s">
-        <v>27</v>
+      <c r="B70" s="26" t="s">
+        <v>130</v>
+      </c>
+      <c r="C70" s="26" t="s">
+        <v>131</v>
       </c>
       <c r="D70" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="E70" s="9">
-        <v>10</v>
-      </c>
+        <v>132</v>
+      </c>
+      <c r="E70" s="27"/>
       <c r="F70" s="9"/>
       <c r="G70" s="18"/>
     </row>
@@ -2974,853 +2846,323 @@
       <c r="A71" s="9">
         <v>63</v>
       </c>
-      <c r="B71" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="C71" s="8" t="s">
-        <v>28</v>
+      <c r="B71" s="26" t="s">
+        <v>133</v>
+      </c>
+      <c r="C71" s="26" t="s">
+        <v>134</v>
       </c>
       <c r="D71" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="E71" s="9">
-        <v>2</v>
+      <c r="E71" s="27">
+        <v>6</v>
       </c>
       <c r="F71" s="9"/>
       <c r="G71" s="18"/>
     </row>
     <row r="72" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="21">
-        <v>64</v>
-      </c>
-      <c r="B72" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="C72" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="D72" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="E72" s="9">
-        <v>1</v>
-      </c>
+      <c r="A72" s="16"/>
+      <c r="B72" s="8"/>
+      <c r="C72" s="8"/>
+      <c r="D72" s="8"/>
+      <c r="E72" s="9"/>
       <c r="F72" s="9"/>
       <c r="G72" s="18"/>
     </row>
     <row r="73" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="9">
-        <v>65</v>
-      </c>
-      <c r="B73" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="C73" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="D73" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="E73" s="9">
-        <v>10</v>
-      </c>
+      <c r="A73" s="16"/>
+      <c r="B73" s="8"/>
+      <c r="C73" s="8"/>
+      <c r="D73" s="8"/>
+      <c r="E73" s="9"/>
       <c r="F73" s="9"/>
       <c r="G73" s="18"/>
     </row>
     <row r="74" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="21">
-        <v>66</v>
-      </c>
-      <c r="B74" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="C74" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="D74" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="E74" s="9">
-        <v>2</v>
-      </c>
+      <c r="A74" s="16"/>
+      <c r="B74" s="8"/>
+      <c r="C74" s="8"/>
+      <c r="D74" s="8"/>
+      <c r="E74" s="9"/>
       <c r="F74" s="9"/>
       <c r="G74" s="18"/>
     </row>
     <row r="75" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="9">
-        <v>67</v>
-      </c>
-      <c r="B75" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="C75" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="D75" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="E75" s="9">
-        <v>1</v>
-      </c>
+      <c r="A75" s="16"/>
+      <c r="B75" s="8"/>
+      <c r="C75" s="8"/>
+      <c r="D75" s="8"/>
+      <c r="E75" s="9"/>
       <c r="F75" s="9"/>
       <c r="G75" s="18"/>
     </row>
     <row r="76" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="21">
-        <v>68</v>
-      </c>
-      <c r="B76" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="C76" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="D76" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="E76" s="9">
-        <v>10</v>
-      </c>
+      <c r="A76" s="16"/>
+      <c r="B76" s="8"/>
+      <c r="C76" s="8"/>
+      <c r="D76" s="8"/>
+      <c r="E76" s="9"/>
       <c r="F76" s="9"/>
       <c r="G76" s="18"/>
     </row>
     <row r="77" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="9">
-        <v>69</v>
-      </c>
-      <c r="B77" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="C77" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="D77" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="E77" s="9">
-        <v>2</v>
-      </c>
+      <c r="A77" s="16"/>
+      <c r="B77" s="8"/>
+      <c r="C77" s="8"/>
+      <c r="D77" s="8"/>
+      <c r="E77" s="9"/>
       <c r="F77" s="9"/>
       <c r="G77" s="18"/>
     </row>
     <row r="78" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="21">
-        <v>70</v>
-      </c>
-      <c r="B78" s="8" t="s">
-        <v>191</v>
-      </c>
-      <c r="C78" s="8" t="s">
-        <v>192</v>
-      </c>
-      <c r="D78" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="E78" s="9">
-        <v>1</v>
-      </c>
+      <c r="A78" s="16"/>
+      <c r="B78" s="8"/>
+      <c r="C78" s="8"/>
+      <c r="D78" s="8"/>
+      <c r="E78" s="9"/>
       <c r="F78" s="9"/>
       <c r="G78" s="18"/>
     </row>
     <row r="79" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="9">
-        <v>71</v>
-      </c>
-      <c r="B79" s="8" t="s">
-        <v>194</v>
-      </c>
-      <c r="C79" s="8" t="s">
-        <v>193</v>
-      </c>
-      <c r="D79" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="E79" s="9">
-        <v>10</v>
-      </c>
+      <c r="A79" s="16"/>
+      <c r="B79" s="8"/>
+      <c r="C79" s="8"/>
+      <c r="D79" s="8"/>
+      <c r="E79" s="9"/>
       <c r="F79" s="9"/>
       <c r="G79" s="18"/>
     </row>
     <row r="80" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="21">
-        <v>72</v>
-      </c>
-      <c r="B80" s="8" t="s">
-        <v>195</v>
-      </c>
-      <c r="C80" s="8" t="s">
-        <v>196</v>
-      </c>
-      <c r="D80" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="E80" s="9">
-        <v>2</v>
-      </c>
+      <c r="A80" s="16"/>
+      <c r="B80" s="8"/>
+      <c r="C80" s="8"/>
+      <c r="D80" s="8"/>
+      <c r="E80" s="9"/>
       <c r="F80" s="9"/>
       <c r="G80" s="18"/>
     </row>
     <row r="81" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A81" s="9">
-        <v>73</v>
-      </c>
-      <c r="B81" s="8" t="s">
-        <v>199</v>
-      </c>
-      <c r="C81" s="8" t="s">
-        <v>197</v>
-      </c>
-      <c r="D81" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="E81" s="9">
-        <v>1</v>
-      </c>
+      <c r="A81" s="16"/>
+      <c r="B81" s="8"/>
+      <c r="C81" s="8"/>
+      <c r="D81" s="8"/>
+      <c r="E81" s="9"/>
       <c r="F81" s="9"/>
       <c r="G81" s="18"/>
     </row>
     <row r="82" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A82" s="21">
-        <v>74</v>
-      </c>
-      <c r="B82" s="8" t="s">
-        <v>200</v>
-      </c>
-      <c r="C82" s="8" t="s">
-        <v>198</v>
-      </c>
-      <c r="D82" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="E82" s="9">
-        <v>10</v>
-      </c>
+      <c r="A82" s="16"/>
+      <c r="B82" s="8"/>
+      <c r="C82" s="8"/>
+      <c r="D82" s="8"/>
+      <c r="E82" s="9"/>
       <c r="F82" s="9"/>
       <c r="G82" s="18"/>
     </row>
     <row r="83" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A83" s="9">
-        <v>75</v>
-      </c>
-      <c r="B83" s="8" t="s">
-        <v>201</v>
-      </c>
-      <c r="C83" s="8" t="s">
-        <v>202</v>
-      </c>
-      <c r="D83" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="E83" s="9">
-        <v>2</v>
-      </c>
+      <c r="A83" s="16"/>
+      <c r="B83" s="8"/>
+      <c r="C83" s="8"/>
+      <c r="D83" s="8"/>
+      <c r="E83" s="9"/>
       <c r="F83" s="9"/>
       <c r="G83" s="18"/>
     </row>
     <row r="84" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A84" s="21">
-        <v>76</v>
-      </c>
-      <c r="B84" s="8" t="s">
-        <v>208</v>
-      </c>
-      <c r="C84" s="8" t="s">
-        <v>203</v>
-      </c>
-      <c r="D84" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="E84" s="9">
-        <v>1</v>
-      </c>
+      <c r="A84" s="16"/>
+      <c r="B84" s="8"/>
+      <c r="C84" s="8"/>
+      <c r="D84" s="8"/>
+      <c r="E84" s="9"/>
       <c r="F84" s="9"/>
       <c r="G84" s="18"/>
     </row>
     <row r="85" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A85" s="9">
-        <v>77</v>
-      </c>
-      <c r="B85" s="8" t="s">
-        <v>207</v>
-      </c>
-      <c r="C85" s="8" t="s">
-        <v>204</v>
-      </c>
-      <c r="D85" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="E85" s="9">
-        <v>10</v>
-      </c>
+      <c r="A85" s="16"/>
+      <c r="B85" s="8"/>
+      <c r="C85" s="8"/>
+      <c r="D85" s="8"/>
+      <c r="E85" s="9"/>
       <c r="F85" s="9"/>
       <c r="G85" s="18"/>
     </row>
     <row r="86" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A86" s="21">
-        <v>78</v>
-      </c>
-      <c r="B86" s="8" t="s">
-        <v>206</v>
-      </c>
-      <c r="C86" s="8" t="s">
-        <v>205</v>
-      </c>
-      <c r="D86" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="E86" s="9">
-        <v>2</v>
-      </c>
+      <c r="A86" s="16"/>
+      <c r="B86" s="8"/>
+      <c r="C86" s="8"/>
+      <c r="D86" s="8"/>
+      <c r="E86" s="9"/>
       <c r="F86" s="9"/>
       <c r="G86" s="18"/>
     </row>
     <row r="87" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A87" s="9">
-        <v>79</v>
-      </c>
-      <c r="B87" s="8" t="s">
-        <v>209</v>
-      </c>
-      <c r="C87" s="8" t="s">
-        <v>210</v>
-      </c>
-      <c r="D87" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="E87" s="9">
-        <v>1</v>
-      </c>
+      <c r="A87" s="16"/>
+      <c r="B87" s="8"/>
+      <c r="C87" s="8"/>
+      <c r="D87" s="8"/>
+      <c r="E87" s="9"/>
       <c r="F87" s="9"/>
       <c r="G87" s="18"/>
     </row>
     <row r="88" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A88" s="21">
-        <v>80</v>
-      </c>
-      <c r="B88" s="8" t="s">
-        <v>212</v>
-      </c>
-      <c r="C88" s="8" t="s">
-        <v>211</v>
-      </c>
-      <c r="D88" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="E88" s="9">
-        <v>10</v>
-      </c>
+      <c r="A88" s="16"/>
+      <c r="B88" s="8"/>
+      <c r="C88" s="8"/>
+      <c r="D88" s="8"/>
+      <c r="E88" s="9"/>
       <c r="F88" s="9"/>
       <c r="G88" s="18"/>
     </row>
     <row r="89" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A89" s="9">
-        <v>81</v>
-      </c>
-      <c r="B89" s="8" t="s">
-        <v>213</v>
-      </c>
-      <c r="C89" s="8" t="s">
-        <v>214</v>
-      </c>
-      <c r="D89" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="E89" s="9">
-        <v>2</v>
-      </c>
+      <c r="A89" s="16"/>
+      <c r="B89" s="8"/>
+      <c r="C89" s="8"/>
+      <c r="D89" s="8"/>
+      <c r="E89" s="9"/>
       <c r="F89" s="9"/>
       <c r="G89" s="18"/>
     </row>
     <row r="90" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A90" s="21">
-        <v>82</v>
-      </c>
-      <c r="B90" s="8" t="s">
-        <v>217</v>
-      </c>
-      <c r="C90" s="8" t="s">
-        <v>215</v>
-      </c>
-      <c r="D90" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="E90" s="9">
-        <v>1</v>
-      </c>
+      <c r="A90" s="16"/>
+      <c r="B90" s="8"/>
+      <c r="C90" s="8"/>
+      <c r="D90" s="8"/>
+      <c r="E90" s="9"/>
       <c r="F90" s="9"/>
       <c r="G90" s="18"/>
     </row>
     <row r="91" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A91" s="9">
-        <v>83</v>
-      </c>
-      <c r="B91" s="8" t="s">
-        <v>218</v>
-      </c>
-      <c r="C91" s="8" t="s">
-        <v>216</v>
-      </c>
-      <c r="D91" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="E91" s="9">
-        <v>10</v>
-      </c>
+      <c r="A91" s="16"/>
+      <c r="B91" s="8"/>
+      <c r="C91" s="8"/>
+      <c r="D91" s="8"/>
+      <c r="E91" s="9"/>
       <c r="F91" s="9"/>
       <c r="G91" s="18"/>
     </row>
     <row r="92" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A92" s="21">
-        <v>84</v>
-      </c>
-      <c r="B92" s="8" t="s">
-        <v>219</v>
-      </c>
-      <c r="C92" s="8" t="s">
-        <v>220</v>
-      </c>
-      <c r="D92" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="E92" s="9">
-        <v>2</v>
-      </c>
+      <c r="A92" s="16"/>
+      <c r="B92" s="8"/>
+      <c r="C92" s="8"/>
+      <c r="D92" s="8"/>
+      <c r="E92" s="9"/>
       <c r="F92" s="9"/>
       <c r="G92" s="18"/>
     </row>
     <row r="93" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A93" s="9">
-        <v>85</v>
-      </c>
-      <c r="B93" s="8" t="s">
-        <v>233</v>
-      </c>
-      <c r="C93" s="8" t="s">
-        <v>232</v>
-      </c>
-      <c r="D93" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="E93" s="9">
-        <v>8</v>
-      </c>
+      <c r="A93" s="16"/>
+      <c r="B93" s="8"/>
+      <c r="C93" s="8"/>
+      <c r="D93" s="8"/>
+      <c r="E93" s="9"/>
       <c r="F93" s="9"/>
       <c r="G93" s="18"/>
     </row>
     <row r="94" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A94" s="21">
-        <v>86</v>
-      </c>
-      <c r="B94" s="8" t="s">
-        <v>223</v>
-      </c>
-      <c r="C94" s="8" t="s">
-        <v>151</v>
-      </c>
-      <c r="D94" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="E94" s="9">
-        <v>8</v>
-      </c>
+      <c r="A94" s="21"/>
+      <c r="B94" s="8"/>
+      <c r="C94" s="8"/>
+      <c r="D94" s="8"/>
+      <c r="E94" s="9"/>
       <c r="F94" s="9"/>
       <c r="G94" s="18"/>
     </row>
     <row r="95" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A95" s="9">
-        <v>87</v>
-      </c>
-      <c r="B95" s="8" t="s">
-        <v>224</v>
-      </c>
-      <c r="C95" s="8" t="s">
-        <v>225</v>
-      </c>
-      <c r="D95" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="E95" s="9">
-        <v>1</v>
-      </c>
+      <c r="A95" s="21"/>
+      <c r="B95" s="8"/>
+      <c r="C95" s="8"/>
+      <c r="D95" s="8"/>
+      <c r="E95" s="9"/>
       <c r="F95" s="9"/>
-      <c r="G95" s="18" t="s">
-        <v>226</v>
-      </c>
+      <c r="G95" s="18"/>
     </row>
     <row r="96" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A96" s="21">
-        <v>88</v>
-      </c>
-      <c r="B96" s="26" t="s">
-        <v>155</v>
-      </c>
-      <c r="C96" s="26" t="s">
-        <v>156</v>
-      </c>
-      <c r="D96" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="E96" s="27"/>
+      <c r="A96" s="21"/>
+      <c r="B96" s="8"/>
+      <c r="C96" s="8"/>
+      <c r="D96" s="8"/>
+      <c r="E96" s="9"/>
       <c r="F96" s="9"/>
       <c r="G96" s="18"/>
     </row>
     <row r="97" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A97" s="9">
-        <v>89</v>
-      </c>
-      <c r="B97" s="26" t="s">
-        <v>158</v>
-      </c>
-      <c r="C97" s="26" t="s">
-        <v>159</v>
-      </c>
-      <c r="D97" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="E97" s="27">
-        <v>6</v>
-      </c>
+      <c r="A97" s="21"/>
+      <c r="B97" s="8"/>
+      <c r="C97" s="8"/>
+      <c r="D97" s="8"/>
+      <c r="E97" s="9"/>
       <c r="F97" s="9"/>
       <c r="G97" s="18"/>
     </row>
-    <row r="98" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A98" s="21">
-        <v>90</v>
-      </c>
-      <c r="B98" s="26" t="s">
-        <v>160</v>
-      </c>
-      <c r="C98" s="26" t="s">
-        <v>161</v>
-      </c>
-      <c r="D98" s="8" t="s">
-        <v>162</v>
-      </c>
-      <c r="E98" s="27"/>
-      <c r="F98" s="9"/>
-      <c r="G98" s="18"/>
-    </row>
-    <row r="99" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A99" s="9">
-        <v>91</v>
-      </c>
-      <c r="B99" s="26" t="s">
-        <v>163</v>
-      </c>
-      <c r="C99" s="26" t="s">
-        <v>164</v>
-      </c>
-      <c r="D99" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="E99" s="27">
-        <v>6</v>
-      </c>
-      <c r="F99" s="9"/>
-      <c r="G99" s="18"/>
-    </row>
-    <row r="100" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A100" s="16"/>
-      <c r="B100" s="8"/>
-      <c r="C100" s="8"/>
-      <c r="D100" s="8"/>
-      <c r="E100" s="9"/>
-      <c r="F100" s="9"/>
-      <c r="G100" s="18"/>
-    </row>
-    <row r="101" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A101" s="16"/>
-      <c r="B101" s="8"/>
-      <c r="C101" s="8"/>
-      <c r="D101" s="8"/>
-      <c r="E101" s="9"/>
-      <c r="F101" s="9"/>
-      <c r="G101" s="18"/>
-    </row>
-    <row r="102" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A102" s="16"/>
-      <c r="B102" s="8"/>
-      <c r="C102" s="8"/>
-      <c r="D102" s="8"/>
-      <c r="E102" s="9"/>
-      <c r="F102" s="9"/>
-      <c r="G102" s="18"/>
-    </row>
-    <row r="103" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A103" s="16"/>
-      <c r="B103" s="8"/>
-      <c r="C103" s="8"/>
-      <c r="D103" s="8"/>
-      <c r="E103" s="9"/>
-      <c r="F103" s="9"/>
-      <c r="G103" s="18"/>
-    </row>
-    <row r="104" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A104" s="16"/>
-      <c r="B104" s="8"/>
-      <c r="C104" s="8"/>
-      <c r="D104" s="8"/>
-      <c r="E104" s="9"/>
-      <c r="F104" s="9"/>
-      <c r="G104" s="18"/>
-    </row>
-    <row r="105" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A105" s="16"/>
-      <c r="B105" s="8"/>
-      <c r="C105" s="8"/>
-      <c r="D105" s="8"/>
-      <c r="E105" s="9"/>
-      <c r="F105" s="9"/>
-      <c r="G105" s="18"/>
-    </row>
-    <row r="106" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A106" s="16"/>
-      <c r="B106" s="8"/>
-      <c r="C106" s="8"/>
-      <c r="D106" s="8"/>
-      <c r="E106" s="9"/>
-      <c r="F106" s="9"/>
-      <c r="G106" s="18"/>
-    </row>
-    <row r="107" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A107" s="16"/>
-      <c r="B107" s="8"/>
-      <c r="C107" s="8"/>
-      <c r="D107" s="8"/>
-      <c r="E107" s="9"/>
-      <c r="F107" s="9"/>
-      <c r="G107" s="18"/>
-    </row>
-    <row r="108" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A108" s="16"/>
-      <c r="B108" s="8"/>
-      <c r="C108" s="8"/>
-      <c r="D108" s="8"/>
-      <c r="E108" s="9"/>
-      <c r="F108" s="9"/>
-      <c r="G108" s="18"/>
-    </row>
-    <row r="109" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A109" s="16"/>
-      <c r="B109" s="8"/>
-      <c r="C109" s="8"/>
-      <c r="D109" s="8"/>
-      <c r="E109" s="9"/>
-      <c r="F109" s="9"/>
-      <c r="G109" s="18"/>
-    </row>
-    <row r="110" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A110" s="16"/>
-      <c r="B110" s="8"/>
-      <c r="C110" s="8"/>
-      <c r="D110" s="8"/>
-      <c r="E110" s="9"/>
-      <c r="F110" s="9"/>
-      <c r="G110" s="18"/>
-    </row>
-    <row r="111" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A111" s="16"/>
-      <c r="B111" s="8"/>
-      <c r="C111" s="8"/>
-      <c r="D111" s="8"/>
-      <c r="E111" s="9"/>
-      <c r="F111" s="9"/>
-      <c r="G111" s="18"/>
-    </row>
-    <row r="112" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A112" s="16"/>
-      <c r="B112" s="8"/>
-      <c r="C112" s="8"/>
-      <c r="D112" s="8"/>
-      <c r="E112" s="9"/>
-      <c r="F112" s="9"/>
-      <c r="G112" s="18"/>
-    </row>
-    <row r="113" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A113" s="16"/>
-      <c r="B113" s="8"/>
-      <c r="C113" s="8"/>
-      <c r="D113" s="8"/>
-      <c r="E113" s="9"/>
-      <c r="F113" s="9"/>
-      <c r="G113" s="18"/>
-    </row>
-    <row r="114" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A114" s="16"/>
-      <c r="B114" s="8"/>
-      <c r="C114" s="8"/>
-      <c r="D114" s="8"/>
-      <c r="E114" s="9"/>
-      <c r="F114" s="9"/>
-      <c r="G114" s="18"/>
-    </row>
-    <row r="115" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A115" s="16"/>
-      <c r="B115" s="8"/>
-      <c r="C115" s="8"/>
-      <c r="D115" s="8"/>
-      <c r="E115" s="9"/>
-      <c r="F115" s="9"/>
-      <c r="G115" s="18"/>
-    </row>
-    <row r="116" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A116" s="16"/>
-      <c r="B116" s="8"/>
-      <c r="C116" s="8"/>
-      <c r="D116" s="8"/>
-      <c r="E116" s="9"/>
-      <c r="F116" s="9"/>
-      <c r="G116" s="18"/>
-    </row>
-    <row r="117" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A117" s="16"/>
-      <c r="B117" s="8"/>
-      <c r="C117" s="8"/>
-      <c r="D117" s="8"/>
-      <c r="E117" s="9"/>
-      <c r="F117" s="9"/>
-      <c r="G117" s="18"/>
-    </row>
-    <row r="118" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A118" s="16"/>
-      <c r="B118" s="8"/>
-      <c r="C118" s="8"/>
-      <c r="D118" s="8"/>
-      <c r="E118" s="9"/>
-      <c r="F118" s="9"/>
-      <c r="G118" s="18"/>
-    </row>
-    <row r="119" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A119" s="16"/>
-      <c r="B119" s="8"/>
-      <c r="C119" s="8"/>
-      <c r="D119" s="8"/>
-      <c r="E119" s="9"/>
-      <c r="F119" s="9"/>
-      <c r="G119" s="18"/>
-    </row>
-    <row r="120" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A120" s="16"/>
-      <c r="B120" s="8"/>
-      <c r="C120" s="8"/>
-      <c r="D120" s="8"/>
-      <c r="E120" s="9"/>
-      <c r="F120" s="9"/>
-      <c r="G120" s="18"/>
-    </row>
-    <row r="121" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A121" s="16"/>
-      <c r="B121" s="8"/>
-      <c r="C121" s="8"/>
-      <c r="D121" s="8"/>
-      <c r="E121" s="9"/>
-      <c r="F121" s="9"/>
-      <c r="G121" s="18"/>
-    </row>
-    <row r="122" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A122" s="21"/>
-      <c r="B122" s="8"/>
-      <c r="C122" s="8"/>
-      <c r="D122" s="8"/>
-      <c r="E122" s="9"/>
-      <c r="F122" s="9"/>
-      <c r="G122" s="18"/>
-    </row>
-    <row r="123" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A123" s="21"/>
-      <c r="B123" s="8"/>
-      <c r="C123" s="8"/>
-      <c r="D123" s="8"/>
-      <c r="E123" s="9"/>
-      <c r="F123" s="9"/>
-      <c r="G123" s="18"/>
-    </row>
-    <row r="124" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A124" s="21"/>
-      <c r="B124" s="8"/>
-      <c r="C124" s="8"/>
-      <c r="D124" s="8"/>
-      <c r="E124" s="9"/>
-      <c r="F124" s="9"/>
-      <c r="G124" s="18"/>
-    </row>
-    <row r="125" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A125" s="21"/>
-      <c r="B125" s="8"/>
-      <c r="C125" s="8"/>
-      <c r="D125" s="8"/>
-      <c r="E125" s="9"/>
-      <c r="F125" s="9"/>
-      <c r="G125" s="18"/>
-    </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A126" s="17"/>
-    </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A127" s="17"/>
-    </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A128" s="17"/>
-    </row>
-    <row r="129" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A129" s="17"/>
-    </row>
-    <row r="130" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A130" s="17"/>
-    </row>
-    <row r="131" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A131" s="17"/>
-    </row>
-    <row r="132" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A132" s="17"/>
-    </row>
-    <row r="133" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A133" s="17"/>
-    </row>
-    <row r="134" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A134" s="17"/>
-    </row>
-    <row r="135" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A135" s="17"/>
-    </row>
-    <row r="136" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A136" s="17"/>
-    </row>
-    <row r="137" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A137" s="17"/>
-    </row>
-    <row r="138" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A138" s="17"/>
-    </row>
-    <row r="139" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A139" s="17"/>
-    </row>
-    <row r="140" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A140" s="17"/>
-    </row>
-    <row r="141" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A141" s="17"/>
-    </row>
-    <row r="142" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A142" s="17"/>
-    </row>
-    <row r="143" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A143" s="17"/>
-    </row>
-    <row r="144" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A144" s="17"/>
-    </row>
-    <row r="145" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A145" s="17"/>
-    </row>
-    <row r="146" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A146" s="17"/>
-    </row>
-    <row r="147" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A147" s="17"/>
-    </row>
-    <row r="148" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A148" s="17"/>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A98" s="17"/>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A99" s="17"/>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A100" s="17"/>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A101" s="17"/>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A102" s="17"/>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A103" s="17"/>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A104" s="17"/>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A105" s="17"/>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A106" s="17"/>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A107" s="17"/>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A108" s="17"/>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A109" s="17"/>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A110" s="17"/>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A111" s="17"/>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A112" s="17"/>
+    </row>
+    <row r="113" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A113" s="17"/>
+    </row>
+    <row r="114" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A114" s="17"/>
+    </row>
+    <row r="115" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A115" s="17"/>
+    </row>
+    <row r="116" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A116" s="17"/>
+    </row>
+    <row r="117" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A117" s="17"/>
+    </row>
+    <row r="118" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A118" s="17"/>
+    </row>
+    <row r="119" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A119" s="17"/>
+    </row>
+    <row r="120" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A120" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -3839,7 +3181,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -3874,7 +3216,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3891,24 +3233,24 @@
   <sheetData>
     <row r="1" spans="1:3" s="28" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="28" t="s">
-        <v>185</v>
+        <v>155</v>
       </c>
       <c r="B1" s="28" t="s">
-        <v>186</v>
+        <v>156</v>
       </c>
       <c r="C1" s="28" t="s">
-        <v>187</v>
+        <v>157</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="29" t="s">
-        <v>188</v>
+        <v>158</v>
       </c>
       <c r="B2" s="29" t="s">
-        <v>189</v>
+        <v>159</v>
       </c>
       <c r="C2" s="29" t="s">
-        <v>190</v>
+        <v>160</v>
       </c>
     </row>
   </sheetData>
